--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.906096</v>
+        <v>2.758668333333333</v>
       </c>
       <c r="H2">
-        <v>5.718287999999999</v>
+        <v>8.276005</v>
       </c>
       <c r="I2">
-        <v>0.1256946322918173</v>
+        <v>0.1440647073657807</v>
       </c>
       <c r="J2">
-        <v>0.1256946322918174</v>
+        <v>0.1440647073657807</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.879043333333333</v>
+        <v>5.326253333333333</v>
       </c>
       <c r="N2">
-        <v>14.63713</v>
+        <v>15.97876</v>
       </c>
       <c r="O2">
-        <v>0.2982563153741644</v>
+        <v>0.2580456412547457</v>
       </c>
       <c r="P2">
-        <v>0.2982563153741645</v>
+        <v>0.2580456412547456</v>
       </c>
       <c r="Q2">
-        <v>9.299924981493332</v>
+        <v>14.69336640597778</v>
       </c>
       <c r="R2">
-        <v>83.69932483343999</v>
+        <v>132.2402976538</v>
       </c>
       <c r="S2">
-        <v>0.03748921788966791</v>
+        <v>0.03717526979438016</v>
       </c>
       <c r="T2">
-        <v>0.03748921788966792</v>
+        <v>0.03717526979438015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.906096</v>
+        <v>2.758668333333333</v>
       </c>
       <c r="H3">
-        <v>5.718287999999999</v>
+        <v>8.276005</v>
       </c>
       <c r="I3">
-        <v>0.1256946322918173</v>
+        <v>0.1440647073657807</v>
       </c>
       <c r="J3">
-        <v>0.1256946322918174</v>
+        <v>0.1440647073657807</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.079429999999999</v>
+        <v>4.07943</v>
       </c>
       <c r="N3">
         <v>12.23829</v>
       </c>
       <c r="O3">
-        <v>0.2493758873413355</v>
+        <v>0.1976397036385515</v>
       </c>
       <c r="P3">
-        <v>0.2493758873413356</v>
+        <v>0.1976397036385515</v>
       </c>
       <c r="Q3">
-        <v>7.775785205279998</v>
+        <v>11.25379435905</v>
       </c>
       <c r="R3">
-        <v>69.98206684751999</v>
+        <v>101.28414923145</v>
       </c>
       <c r="S3">
-        <v>0.03134521046181484</v>
+        <v>0.02847290606854754</v>
       </c>
       <c r="T3">
-        <v>0.03134521046181485</v>
+        <v>0.02847290606854754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.906096</v>
+        <v>2.758668333333333</v>
       </c>
       <c r="H4">
-        <v>5.718287999999999</v>
+        <v>8.276005</v>
       </c>
       <c r="I4">
-        <v>0.1256946322918173</v>
+        <v>0.1440647073657807</v>
       </c>
       <c r="J4">
-        <v>0.1256946322918174</v>
+        <v>0.1440647073657807</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.143236333333334</v>
+        <v>4.133745333333334</v>
       </c>
       <c r="N4">
-        <v>6.429709000000001</v>
+        <v>12.401236</v>
       </c>
       <c r="O4">
-        <v>0.1310162111881294</v>
+        <v>0.2002711659710414</v>
       </c>
       <c r="P4">
-        <v>0.1310162111881294</v>
+        <v>0.2002711659710414</v>
       </c>
       <c r="Q4">
-        <v>4.085214202021334</v>
+        <v>11.40363234913111</v>
       </c>
       <c r="R4">
-        <v>36.766927818192</v>
+        <v>102.63269114218</v>
       </c>
       <c r="S4">
-        <v>0.01646803448955901</v>
+        <v>0.02885200691942177</v>
       </c>
       <c r="T4">
-        <v>0.01646803448955901</v>
+        <v>0.02885200691942176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.906096</v>
+        <v>2.758668333333333</v>
       </c>
       <c r="H5">
-        <v>5.718287999999999</v>
+        <v>8.276005</v>
       </c>
       <c r="I5">
-        <v>0.1256946322918173</v>
+        <v>0.1440647073657807</v>
       </c>
       <c r="J5">
-        <v>0.1256946322918174</v>
+        <v>0.1440647073657807</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.932870333333333</v>
+        <v>2.203090333333333</v>
       </c>
       <c r="N5">
-        <v>5.798610999999999</v>
+        <v>6.609271</v>
       </c>
       <c r="O5">
-        <v>0.1181565205165288</v>
+        <v>0.1067350391032467</v>
       </c>
       <c r="P5">
-        <v>0.1181565205165288</v>
+        <v>0.1067350391032467</v>
       </c>
       <c r="Q5">
-        <v>3.684236410885332</v>
+        <v>6.077595538039444</v>
       </c>
       <c r="R5">
-        <v>33.15812769796799</v>
+        <v>54.698359842355</v>
       </c>
       <c r="S5">
-        <v>0.01485164039920566</v>
+        <v>0.01537675217408439</v>
       </c>
       <c r="T5">
-        <v>0.01485164039920566</v>
+        <v>0.01537675217408439</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.906096</v>
+        <v>2.758668333333333</v>
       </c>
       <c r="H6">
-        <v>5.718287999999999</v>
+        <v>8.276005</v>
       </c>
       <c r="I6">
-        <v>0.1256946322918173</v>
+        <v>0.1440647073657807</v>
       </c>
       <c r="J6">
-        <v>0.1256946322918174</v>
+        <v>0.1440647073657807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.323978333333333</v>
+        <v>4.898222333333333</v>
       </c>
       <c r="N6">
-        <v>9.971934999999998</v>
+        <v>14.694667</v>
       </c>
       <c r="O6">
-        <v>0.2031950655798417</v>
+        <v>0.2373084500324149</v>
       </c>
       <c r="P6">
-        <v>0.2031950655798417</v>
+        <v>0.2373084500324149</v>
       </c>
       <c r="Q6">
-        <v>6.335821805253332</v>
+        <v>13.51257084059278</v>
       </c>
       <c r="R6">
-        <v>57.02239624727999</v>
+        <v>121.613137565335</v>
       </c>
       <c r="S6">
-        <v>0.02554052905156991</v>
+        <v>0.03418777240934683</v>
       </c>
       <c r="T6">
-        <v>0.02554052905156992</v>
+        <v>0.03418777240934683</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>13.483984</v>
       </c>
       <c r="I7">
-        <v>0.2963936777421404</v>
+        <v>0.2347226964078524</v>
       </c>
       <c r="J7">
-        <v>0.2963936777421404</v>
+        <v>0.2347226964078524</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.879043333333333</v>
+        <v>5.326253333333333</v>
       </c>
       <c r="N7">
-        <v>14.63713</v>
+        <v>15.97876</v>
       </c>
       <c r="O7">
-        <v>0.2982563153741644</v>
+        <v>0.2580456412547457</v>
       </c>
       <c r="P7">
-        <v>0.2982563153741645</v>
+        <v>0.2580456412547456</v>
       </c>
       <c r="Q7">
-        <v>21.92964741399111</v>
+        <v>23.93970490887111</v>
       </c>
       <c r="R7">
-        <v>197.36682672592</v>
+        <v>215.45734417984</v>
       </c>
       <c r="S7">
-        <v>0.08840128622356828</v>
+        <v>0.06056916871160727</v>
       </c>
       <c r="T7">
-        <v>0.08840128622356831</v>
+        <v>0.06056916871160725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>13.483984</v>
       </c>
       <c r="I8">
-        <v>0.2963936777421404</v>
+        <v>0.2347226964078524</v>
       </c>
       <c r="J8">
-        <v>0.2963936777421404</v>
+        <v>0.2347226964078524</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.079429999999999</v>
+        <v>4.07943</v>
       </c>
       <c r="N8">
         <v>12.23829</v>
       </c>
       <c r="O8">
-        <v>0.2493758873413355</v>
+        <v>0.1976397036385515</v>
       </c>
       <c r="P8">
-        <v>0.2493758873413356</v>
+        <v>0.1976397036385515</v>
       </c>
       <c r="Q8">
         <v>18.33565628304</v>
@@ -948,10 +948,10 @@
         <v>165.02090654736</v>
       </c>
       <c r="S8">
-        <v>0.07391343638930813</v>
+        <v>0.04639052415528965</v>
       </c>
       <c r="T8">
-        <v>0.07391343638930813</v>
+        <v>0.04639052415528964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>13.483984</v>
       </c>
       <c r="I9">
-        <v>0.2963936777421404</v>
+        <v>0.2347226964078524</v>
       </c>
       <c r="J9">
-        <v>0.2963936777421404</v>
+        <v>0.2347226964078524</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.143236333333334</v>
+        <v>4.133745333333334</v>
       </c>
       <c r="N9">
-        <v>6.429709000000001</v>
+        <v>12.401236</v>
       </c>
       <c r="O9">
-        <v>0.1310162111881294</v>
+        <v>0.2002711659710414</v>
       </c>
       <c r="P9">
-        <v>0.1310162111881294</v>
+        <v>0.2002711659710414</v>
       </c>
       <c r="Q9">
-        <v>9.633121475628446</v>
+        <v>18.57978531158044</v>
       </c>
       <c r="R9">
-        <v>86.69809328065601</v>
+        <v>167.218067804224</v>
       </c>
       <c r="S9">
-        <v>0.03883237667789063</v>
+        <v>0.04700818808946737</v>
       </c>
       <c r="T9">
-        <v>0.03883237667789063</v>
+        <v>0.04700818808946736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>13.483984</v>
       </c>
       <c r="I10">
-        <v>0.2963936777421404</v>
+        <v>0.2347226964078524</v>
       </c>
       <c r="J10">
-        <v>0.2963936777421404</v>
+        <v>0.2347226964078524</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.932870333333333</v>
+        <v>2.203090333333333</v>
       </c>
       <c r="N10">
-        <v>5.798610999999999</v>
+        <v>6.609271</v>
       </c>
       <c r="O10">
-        <v>0.1181565205165288</v>
+        <v>0.1067350391032467</v>
       </c>
       <c r="P10">
-        <v>0.1181565205165288</v>
+        <v>0.1067350391032467</v>
       </c>
       <c r="Q10">
-        <v>8.687597549580444</v>
+        <v>9.902144935073778</v>
       </c>
       <c r="R10">
-        <v>78.18837794622399</v>
+        <v>89.11930441566399</v>
       </c>
       <c r="S10">
-        <v>0.03502084566510864</v>
+        <v>0.02505313617951163</v>
       </c>
       <c r="T10">
-        <v>0.03502084566510864</v>
+        <v>0.02505313617951163</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>13.483984</v>
       </c>
       <c r="I11">
-        <v>0.2963936777421404</v>
+        <v>0.2347226964078524</v>
       </c>
       <c r="J11">
-        <v>0.2963936777421404</v>
+        <v>0.2347226964078524</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.323978333333333</v>
+        <v>4.898222333333333</v>
       </c>
       <c r="N11">
-        <v>9.971934999999998</v>
+        <v>14.694667</v>
       </c>
       <c r="O11">
-        <v>0.2031950655798417</v>
+        <v>0.2373084500324149</v>
       </c>
       <c r="P11">
-        <v>0.2031950655798417</v>
+        <v>0.2373084500324149</v>
       </c>
       <c r="Q11">
-        <v>14.94015688767111</v>
+        <v>22.01585052370311</v>
       </c>
       <c r="R11">
-        <v>134.46141198904</v>
+        <v>198.142654713328</v>
       </c>
       <c r="S11">
-        <v>0.06022573278626469</v>
+        <v>0.05570167927197654</v>
       </c>
       <c r="T11">
-        <v>0.06022573278626469</v>
+        <v>0.05570167927197653</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.284408333333333</v>
+        <v>4.104998333333334</v>
       </c>
       <c r="H12">
-        <v>9.853225</v>
+        <v>12.314995</v>
       </c>
       <c r="I12">
-        <v>0.2165853649315219</v>
+        <v>0.214373499156423</v>
       </c>
       <c r="J12">
-        <v>0.2165853649315219</v>
+        <v>0.214373499156423</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.879043333333333</v>
+        <v>5.326253333333333</v>
       </c>
       <c r="N12">
-        <v>14.63713</v>
+        <v>15.97876</v>
       </c>
       <c r="O12">
-        <v>0.2982563153741644</v>
+        <v>0.2580456412547457</v>
       </c>
       <c r="P12">
-        <v>0.2982563153741645</v>
+        <v>0.2580456412547456</v>
       </c>
       <c r="Q12">
-        <v>16.02477058269444</v>
+        <v>21.86426105624444</v>
       </c>
       <c r="R12">
-        <v>144.22293524425</v>
+        <v>196.7783495062</v>
       </c>
       <c r="S12">
-        <v>0.06459795290844447</v>
+        <v>0.05531814705784285</v>
       </c>
       <c r="T12">
-        <v>0.06459795290844449</v>
+        <v>0.05531814705784283</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.284408333333333</v>
+        <v>4.104998333333334</v>
       </c>
       <c r="H13">
-        <v>9.853225</v>
+        <v>12.314995</v>
       </c>
       <c r="I13">
-        <v>0.2165853649315219</v>
+        <v>0.214373499156423</v>
       </c>
       <c r="J13">
-        <v>0.2165853649315219</v>
+        <v>0.214373499156423</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.079429999999999</v>
+        <v>4.07943</v>
       </c>
       <c r="N13">
         <v>12.23829</v>
       </c>
       <c r="O13">
-        <v>0.2493758873413355</v>
+        <v>0.1976397036385515</v>
       </c>
       <c r="P13">
-        <v>0.2493758873413356</v>
+        <v>0.1976397036385515</v>
       </c>
       <c r="Q13">
-        <v>13.39851388725</v>
+        <v>16.74605335095</v>
       </c>
       <c r="R13">
-        <v>120.58662498525</v>
+        <v>150.71448015855</v>
       </c>
       <c r="S13">
-        <v>0.05401116756494524</v>
+        <v>0.04236871484123471</v>
       </c>
       <c r="T13">
-        <v>0.05401116756494525</v>
+        <v>0.0423687148412347</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.284408333333333</v>
+        <v>4.104998333333334</v>
       </c>
       <c r="H14">
-        <v>9.853225</v>
+        <v>12.314995</v>
       </c>
       <c r="I14">
-        <v>0.2165853649315219</v>
+        <v>0.214373499156423</v>
       </c>
       <c r="J14">
-        <v>0.2165853649315219</v>
+        <v>0.214373499156423</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.143236333333334</v>
+        <v>4.133745333333334</v>
       </c>
       <c r="N14">
-        <v>6.429709000000001</v>
+        <v>12.401236</v>
       </c>
       <c r="O14">
-        <v>0.1310162111881294</v>
+        <v>0.2002711659710414</v>
       </c>
       <c r="P14">
-        <v>0.1310162111881294</v>
+        <v>0.2002711659710414</v>
       </c>
       <c r="Q14">
-        <v>7.03926327350278</v>
+        <v>16.96901770375778</v>
       </c>
       <c r="R14">
-        <v>63.35336946152501</v>
+        <v>152.72115933382</v>
       </c>
       <c r="S14">
-        <v>0.02837619391212634</v>
+        <v>0.04293283062934889</v>
       </c>
       <c r="T14">
-        <v>0.02837619391212634</v>
+        <v>0.04293283062934888</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.284408333333333</v>
+        <v>4.104998333333334</v>
       </c>
       <c r="H15">
-        <v>9.853225</v>
+        <v>12.314995</v>
       </c>
       <c r="I15">
-        <v>0.2165853649315219</v>
+        <v>0.214373499156423</v>
       </c>
       <c r="J15">
-        <v>0.2165853649315219</v>
+        <v>0.214373499156423</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.932870333333333</v>
+        <v>2.203090333333333</v>
       </c>
       <c r="N15">
-        <v>5.798610999999999</v>
+        <v>6.609271</v>
       </c>
       <c r="O15">
-        <v>0.1181565205165288</v>
+        <v>0.1067350391032467</v>
       </c>
       <c r="P15">
-        <v>0.1181565205165288</v>
+        <v>0.1067350391032467</v>
       </c>
       <c r="Q15">
-        <v>6.348335430052777</v>
+        <v>9.043682146516112</v>
       </c>
       <c r="R15">
-        <v>57.13501887047499</v>
+        <v>81.393139318645</v>
       </c>
       <c r="S15">
-        <v>0.02559097311511124</v>
+        <v>0.02288116381516063</v>
       </c>
       <c r="T15">
-        <v>0.02559097311511124</v>
+        <v>0.02288116381516062</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.284408333333333</v>
+        <v>4.104998333333334</v>
       </c>
       <c r="H16">
-        <v>9.853225</v>
+        <v>12.314995</v>
       </c>
       <c r="I16">
-        <v>0.2165853649315219</v>
+        <v>0.214373499156423</v>
       </c>
       <c r="J16">
-        <v>0.2165853649315219</v>
+        <v>0.214373499156423</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.323978333333333</v>
+        <v>4.898222333333333</v>
       </c>
       <c r="N16">
-        <v>9.971934999999998</v>
+        <v>14.694667</v>
       </c>
       <c r="O16">
-        <v>0.2031950655798417</v>
+        <v>0.2373084500324149</v>
       </c>
       <c r="P16">
-        <v>0.2031950655798417</v>
+        <v>0.2373084500324149</v>
       </c>
       <c r="Q16">
-        <v>10.91730213781944</v>
+        <v>20.10719451462944</v>
       </c>
       <c r="R16">
-        <v>98.25571924037499</v>
+        <v>180.964750631665</v>
       </c>
       <c r="S16">
-        <v>0.04400907743089453</v>
+        <v>0.05087264281283593</v>
       </c>
       <c r="T16">
-        <v>0.04400907743089453</v>
+        <v>0.05087264281283593</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.642000666666667</v>
+        <v>1.838592</v>
       </c>
       <c r="H17">
-        <v>4.926002</v>
+        <v>5.515776</v>
       </c>
       <c r="I17">
-        <v>0.1082792629645021</v>
+        <v>0.09601597091050529</v>
       </c>
       <c r="J17">
-        <v>0.1082792629645021</v>
+        <v>0.09601597091050527</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.879043333333333</v>
+        <v>5.326253333333333</v>
       </c>
       <c r="N17">
-        <v>14.63713</v>
+        <v>15.97876</v>
       </c>
       <c r="O17">
-        <v>0.2982563153741644</v>
+        <v>0.2580456412547457</v>
       </c>
       <c r="P17">
-        <v>0.2982563153741645</v>
+        <v>0.2580456412547456</v>
       </c>
       <c r="Q17">
-        <v>8.011392406028889</v>
+        <v>9.792806768639998</v>
       </c>
       <c r="R17">
-        <v>72.10253165426001</v>
+        <v>88.13526091775999</v>
       </c>
       <c r="S17">
-        <v>0.03229497400322263</v>
+        <v>0.02477650278429834</v>
       </c>
       <c r="T17">
-        <v>0.03229497400322264</v>
+        <v>0.02477650278429833</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.642000666666667</v>
+        <v>1.838592</v>
       </c>
       <c r="H18">
-        <v>4.926002</v>
+        <v>5.515776</v>
       </c>
       <c r="I18">
-        <v>0.1082792629645021</v>
+        <v>0.09601597091050529</v>
       </c>
       <c r="J18">
-        <v>0.1082792629645021</v>
+        <v>0.09601597091050527</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.079429999999999</v>
+        <v>4.07943</v>
       </c>
       <c r="N18">
         <v>12.23829</v>
       </c>
       <c r="O18">
-        <v>0.2493758873413355</v>
+        <v>0.1976397036385515</v>
       </c>
       <c r="P18">
-        <v>0.2493758873413356</v>
+        <v>0.1976397036385515</v>
       </c>
       <c r="Q18">
-        <v>6.69842677962</v>
+        <v>7.500407362560001</v>
       </c>
       <c r="R18">
-        <v>60.28584101658</v>
+        <v>67.50366626304</v>
       </c>
       <c r="S18">
-        <v>0.02700223728243853</v>
+        <v>0.01897656803532005</v>
       </c>
       <c r="T18">
-        <v>0.02700223728243854</v>
+        <v>0.01897656803532004</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.642000666666667</v>
+        <v>1.838592</v>
       </c>
       <c r="H19">
-        <v>4.926002</v>
+        <v>5.515776</v>
       </c>
       <c r="I19">
-        <v>0.1082792629645021</v>
+        <v>0.09601597091050529</v>
       </c>
       <c r="J19">
-        <v>0.1082792629645021</v>
+        <v>0.09601597091050527</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.143236333333334</v>
+        <v>4.133745333333334</v>
       </c>
       <c r="N19">
-        <v>6.429709000000001</v>
+        <v>12.401236</v>
       </c>
       <c r="O19">
-        <v>0.1310162111881294</v>
+        <v>0.2002711659710414</v>
       </c>
       <c r="P19">
-        <v>0.1310162111881294</v>
+        <v>0.2002711659710414</v>
       </c>
       <c r="Q19">
-        <v>3.519195488157557</v>
+        <v>7.600271099904001</v>
       </c>
       <c r="R19">
-        <v>31.672759393418</v>
+        <v>68.402439899136</v>
       </c>
       <c r="S19">
-        <v>0.01418633878385221</v>
+        <v>0.01922923044608849</v>
       </c>
       <c r="T19">
-        <v>0.01418633878385221</v>
+        <v>0.01922923044608848</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.642000666666667</v>
+        <v>1.838592</v>
       </c>
       <c r="H20">
-        <v>4.926002</v>
+        <v>5.515776</v>
       </c>
       <c r="I20">
-        <v>0.1082792629645021</v>
+        <v>0.09601597091050529</v>
       </c>
       <c r="J20">
-        <v>0.1082792629645021</v>
+        <v>0.09601597091050527</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.932870333333333</v>
+        <v>2.203090333333333</v>
       </c>
       <c r="N20">
-        <v>5.798610999999999</v>
+        <v>6.609271</v>
       </c>
       <c r="O20">
-        <v>0.1181565205165288</v>
+        <v>0.1067350391032467</v>
       </c>
       <c r="P20">
-        <v>0.1181565205165288</v>
+        <v>0.1067350391032467</v>
       </c>
       <c r="Q20">
-        <v>3.173774375913555</v>
+        <v>4.050584262144</v>
       </c>
       <c r="R20">
-        <v>28.563969383222</v>
+        <v>36.455258359296</v>
       </c>
       <c r="S20">
-        <v>0.01279390095597981</v>
+        <v>0.01024826840966898</v>
       </c>
       <c r="T20">
-        <v>0.01279390095597981</v>
+        <v>0.01024826840966898</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.642000666666667</v>
+        <v>1.838592</v>
       </c>
       <c r="H21">
-        <v>4.926002</v>
+        <v>5.515776</v>
       </c>
       <c r="I21">
-        <v>0.1082792629645021</v>
+        <v>0.09601597091050529</v>
       </c>
       <c r="J21">
-        <v>0.1082792629645021</v>
+        <v>0.09601597091050527</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.323978333333333</v>
+        <v>4.898222333333333</v>
       </c>
       <c r="N21">
-        <v>9.971934999999998</v>
+        <v>14.694667</v>
       </c>
       <c r="O21">
-        <v>0.2031950655798417</v>
+        <v>0.2373084500324149</v>
       </c>
       <c r="P21">
-        <v>0.2031950655798417</v>
+        <v>0.2373084500324149</v>
       </c>
       <c r="Q21">
-        <v>5.457974639318889</v>
+        <v>9.005832396288</v>
       </c>
       <c r="R21">
-        <v>49.12177175387</v>
+        <v>81.052491566592</v>
       </c>
       <c r="S21">
-        <v>0.02200181193900894</v>
+        <v>0.02278540123512944</v>
       </c>
       <c r="T21">
-        <v>0.02200181193900894</v>
+        <v>0.02278540123512944</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.837331666666667</v>
+        <v>5.951894333333333</v>
       </c>
       <c r="H22">
-        <v>11.511995</v>
+        <v>17.855683</v>
       </c>
       <c r="I22">
-        <v>0.2530470620700182</v>
+        <v>0.3108231261594386</v>
       </c>
       <c r="J22">
-        <v>0.2530470620700182</v>
+        <v>0.3108231261594386</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.879043333333333</v>
+        <v>5.326253333333333</v>
       </c>
       <c r="N22">
-        <v>14.63713</v>
+        <v>15.97876</v>
       </c>
       <c r="O22">
-        <v>0.2982563153741644</v>
+        <v>0.2580456412547457</v>
       </c>
       <c r="P22">
-        <v>0.2982563153741645</v>
+        <v>0.2580456412547456</v>
       </c>
       <c r="Q22">
-        <v>18.72250748603889</v>
+        <v>31.70129703256444</v>
       </c>
       <c r="R22">
-        <v>168.50256737435</v>
+        <v>285.31167329308</v>
       </c>
       <c r="S22">
-        <v>0.07547288434926111</v>
+        <v>0.08020655290661705</v>
       </c>
       <c r="T22">
-        <v>0.07547288434926112</v>
+        <v>0.08020655290661702</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.837331666666667</v>
+        <v>5.951894333333333</v>
       </c>
       <c r="H23">
-        <v>11.511995</v>
+        <v>17.855683</v>
       </c>
       <c r="I23">
-        <v>0.2530470620700182</v>
+        <v>0.3108231261594386</v>
       </c>
       <c r="J23">
-        <v>0.2530470620700182</v>
+        <v>0.3108231261594386</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.079429999999999</v>
+        <v>4.07943</v>
       </c>
       <c r="N23">
         <v>12.23829</v>
       </c>
       <c r="O23">
-        <v>0.2493758873413355</v>
+        <v>0.1976397036385515</v>
       </c>
       <c r="P23">
-        <v>0.2493758873413356</v>
+        <v>0.1976397036385515</v>
       </c>
       <c r="Q23">
-        <v>15.65412592095</v>
+        <v>24.28033630023</v>
       </c>
       <c r="R23">
-        <v>140.88713328855</v>
+        <v>218.52302670207</v>
       </c>
       <c r="S23">
-        <v>0.0631038356428288</v>
+        <v>0.06143099053815955</v>
       </c>
       <c r="T23">
-        <v>0.0631038356428288</v>
+        <v>0.06143099053815954</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.837331666666667</v>
+        <v>5.951894333333333</v>
       </c>
       <c r="H24">
-        <v>11.511995</v>
+        <v>17.855683</v>
       </c>
       <c r="I24">
-        <v>0.2530470620700182</v>
+        <v>0.3108231261594386</v>
       </c>
       <c r="J24">
-        <v>0.2530470620700182</v>
+        <v>0.3108231261594386</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.143236333333334</v>
+        <v>4.133745333333334</v>
       </c>
       <c r="N24">
-        <v>6.429709000000001</v>
+        <v>12.401236</v>
       </c>
       <c r="O24">
-        <v>0.1310162111881294</v>
+        <v>0.2002711659710414</v>
       </c>
       <c r="P24">
-        <v>0.1310162111881294</v>
+        <v>0.2002711659710414</v>
       </c>
       <c r="Q24">
-        <v>8.224308651050558</v>
+        <v>24.60361542490978</v>
       </c>
       <c r="R24">
-        <v>74.01877785945501</v>
+        <v>221.432538824188</v>
       </c>
       <c r="S24">
-        <v>0.03315326732470118</v>
+        <v>0.06224890988671486</v>
       </c>
       <c r="T24">
-        <v>0.03315326732470118</v>
+        <v>0.06224890988671485</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.837331666666667</v>
+        <v>5.951894333333333</v>
       </c>
       <c r="H25">
-        <v>11.511995</v>
+        <v>17.855683</v>
       </c>
       <c r="I25">
-        <v>0.2530470620700182</v>
+        <v>0.3108231261594386</v>
       </c>
       <c r="J25">
-        <v>0.2530470620700182</v>
+        <v>0.3108231261594386</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.932870333333333</v>
+        <v>2.203090333333333</v>
       </c>
       <c r="N25">
-        <v>5.798610999999999</v>
+        <v>6.609271</v>
       </c>
       <c r="O25">
-        <v>0.1181565205165288</v>
+        <v>0.1067350391032467</v>
       </c>
       <c r="P25">
-        <v>0.1181565205165288</v>
+        <v>0.1067350391032467</v>
       </c>
       <c r="Q25">
-        <v>7.417064537660555</v>
+        <v>13.11256087078811</v>
       </c>
       <c r="R25">
-        <v>66.753580838945</v>
+        <v>118.013047837093</v>
       </c>
       <c r="S25">
-        <v>0.02989916038112344</v>
+        <v>0.03317571852482105</v>
       </c>
       <c r="T25">
-        <v>0.02989916038112344</v>
+        <v>0.03317571852482105</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.837331666666667</v>
+        <v>5.951894333333333</v>
       </c>
       <c r="H26">
-        <v>11.511995</v>
+        <v>17.855683</v>
       </c>
       <c r="I26">
-        <v>0.2530470620700182</v>
+        <v>0.3108231261594386</v>
       </c>
       <c r="J26">
-        <v>0.2530470620700182</v>
+        <v>0.3108231261594386</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.323978333333333</v>
+        <v>4.898222333333333</v>
       </c>
       <c r="N26">
-        <v>9.971934999999998</v>
+        <v>14.694667</v>
       </c>
       <c r="O26">
-        <v>0.2031950655798417</v>
+        <v>0.2373084500324149</v>
       </c>
       <c r="P26">
-        <v>0.2031950655798417</v>
+        <v>0.2373084500324149</v>
       </c>
       <c r="Q26">
-        <v>12.75520731781389</v>
+        <v>29.15370174917344</v>
       </c>
       <c r="R26">
-        <v>114.796865860325</v>
+        <v>262.383315742561</v>
       </c>
       <c r="S26">
-        <v>0.05141791437210362</v>
+        <v>0.07376095430312611</v>
       </c>
       <c r="T26">
-        <v>0.05141791437210362</v>
+        <v>0.07376095430312611</v>
       </c>
     </row>
   </sheetData>
